--- a/public/assets/files/Employee-Batch-Import-Template.xlsx
+++ b/public/assets/files/Employee-Batch-Import-Template.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gwc\public\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1 CARBON\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214F68EC-285E-41DA-8DE3-941213EF2BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE00CBAA-CC81-4553-ACBD-C983F499C71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3BB40A2-050B-4164-B377-7FD07443811E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="CS">Sheet2!$A$1:$A$4</definedName>
+    <definedName name="ES">Sheet2!$B$1:$B$4</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -70,16 +75,75 @@
   </si>
   <si>
     <t>Date Hired</t>
+  </si>
+  <si>
+    <t>Anton Jay</t>
+  </si>
+  <si>
+    <t>Hermo</t>
+  </si>
+  <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Tech Department</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Siuton, Magallanes, Sorsogon</t>
+  </si>
+  <si>
+    <t>ajhay.life@gmail.com</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>3337000000200004</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Widow/Widower</t>
+  </si>
+  <si>
+    <t>Probationary</t>
+  </si>
+  <si>
+    <t>Contractual</t>
+  </si>
+  <si>
+    <t>Part-Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,14 +177,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56FD930-2698-423F-9D17-42A79496663B}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,17 +512,17 @@
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" customWidth="1"/>
     <col min="15" max="15" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,7 +573,113 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>15000</v>
+      </c>
+      <c r="H2">
+        <v>11000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>9395202340</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{045DBCC0-6A3C-49A8-9EA1-6AACD98B075D}">
+      <formula1>ES</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{555C2F34-CB15-4CC7-A1AA-54D7055772A0}">
+      <formula1>CS</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{9B9B9439-BE48-49D7-A67D-D674F9B2D894}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1422B8-A9D1-40AA-94A9-25B08D2E5D25}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
